--- a/KilimookkuRecordKeeping.xlsx
+++ b/KilimookkuRecordKeeping.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="8">
   <si>
     <t>Adaikku ukkaarnthathu</t>
   </si>
@@ -30,6 +30,15 @@
   </si>
   <si>
     <t>16th November, 2018</t>
+  </si>
+  <si>
+    <t>28th December, 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sambal </t>
+  </si>
+  <si>
+    <t>Mayil karuppu</t>
   </si>
 </sst>
 </file>
@@ -396,18 +405,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -417,8 +427,11 @@
       <c r="C1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -427,6 +440,51 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1750</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1750</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1500</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
